--- a/21-P2开发管理平台/01-需求分析.xlsx
+++ b/21-P2开发管理平台/01-需求分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinguodong/11-projects/projectDocs/21-P2开发管理平台/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{422FEA24-1E91-2E43-9E99-B1D55FB3F805}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB5DC5CB-C219-3549-B868-8F932A925FE5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="798" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="14" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="战略目标" sheetId="3" r:id="rId4"/>
     <sheet name="客户渠道-业务分析" sheetId="4" state="hidden" r:id="rId5"/>
     <sheet name="员工渠道-业务分析" sheetId="9" state="hidden" r:id="rId6"/>
-    <sheet name="干系人分析" sheetId="5" r:id="rId7"/>
-    <sheet name="领域及领域组件" sheetId="7" r:id="rId8"/>
-    <sheet name="三级活动" sheetId="2" r:id="rId9"/>
-    <sheet name="四级任务" sheetId="1" state="hidden" r:id="rId10"/>
-    <sheet name="交易报文" sheetId="8" r:id="rId11"/>
-    <sheet name="C模型" sheetId="11" r:id="rId12"/>
+    <sheet name="C模型" sheetId="11" r:id="rId7"/>
+    <sheet name="干系人分析" sheetId="5" r:id="rId8"/>
+    <sheet name="领域及领域组件" sheetId="7" r:id="rId9"/>
+    <sheet name="三级活动" sheetId="2" r:id="rId10"/>
+    <sheet name="四级任务" sheetId="1" state="hidden" r:id="rId11"/>
+    <sheet name="交易报文" sheetId="8" r:id="rId12"/>
     <sheet name="数据项编号" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="614">
   <si>
     <t>项目整体管理</t>
   </si>
@@ -491,127 +491,10 @@
     <t>确定目标因素</t>
   </si>
   <si>
-    <t>确定目标层次结构</t>
-  </si>
-  <si>
     <t>室内活动管理</t>
   </si>
   <si>
-    <t>室内活动评价管理</t>
-  </si>
-  <si>
-    <t>室内老师评价管理</t>
-  </si>
-  <si>
-    <t>消息服务</t>
-  </si>
-  <si>
-    <t>1. 提供用户与老师沟通机制</t>
-  </si>
-  <si>
-    <t>2. 提供用户与平台沟通机制</t>
-  </si>
-  <si>
-    <t>3. 提供老师与平台沟通机制</t>
-  </si>
-  <si>
-    <t>室内活动在线支付与报名</t>
-  </si>
-  <si>
-    <t>1. 用户选择一个室内活动之后，输入需要输入的数据，提交订单之后，生成订单信息</t>
-  </si>
-  <si>
-    <t>支付管理</t>
-  </si>
-  <si>
-    <t>参数管理</t>
-  </si>
-  <si>
-    <t>1. 满足各个目标的参数需求</t>
-  </si>
-  <si>
-    <t>系统用户快速引流</t>
-  </si>
-  <si>
-    <t>注册管理</t>
-  </si>
-  <si>
-    <t>登录管理</t>
-  </si>
-  <si>
-    <t>客服管理</t>
-  </si>
-  <si>
-    <t>个人空间管理</t>
-  </si>
-  <si>
-    <t>个人中心管理</t>
-  </si>
-  <si>
-    <t>后台管理系统</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
     <t>短信参数化控制</t>
-  </si>
-  <si>
-    <t>持久化参数化控制</t>
-  </si>
-  <si>
-    <t>活动管理</t>
-  </si>
-  <si>
-    <t>报名管理</t>
-  </si>
-  <si>
-    <t>—留言管理</t>
-  </si>
-  <si>
-    <t>—热门问答管理</t>
-  </si>
-  <si>
-    <t>—提醒管理</t>
-  </si>
-  <si>
-    <t>—私信管理</t>
-  </si>
-  <si>
-    <t>—公告板管理</t>
-  </si>
-  <si>
-    <t>—相册管理</t>
-  </si>
-  <si>
-    <t>—导师管理</t>
-  </si>
-  <si>
-    <t>—导师私信管理</t>
-  </si>
-  <si>
-    <t>—视频管理</t>
-  </si>
-  <si>
-    <t>—最新通告管理</t>
-  </si>
-  <si>
-    <t>—最新留言管理</t>
-  </si>
-  <si>
-    <t>—会员管理</t>
-  </si>
-  <si>
-    <t>—营员管理</t>
-  </si>
-  <si>
-    <t>—地址管理</t>
-  </si>
-  <si>
-    <t>—消息管理</t>
-  </si>
-  <si>
-    <t>公用声明管理</t>
   </si>
   <si>
     <t>事件编号</t>
@@ -1352,9 +1235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weather_location</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1385,9 +1265,6 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>weather_daily</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -1428,27 +1305,6 @@
   </si>
   <si>
     <t>wind_scale</t>
-  </si>
-  <si>
-    <t>天气城市信息</t>
-    <rPh sb="0" eb="2">
-      <t>tian'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气每日信息</t>
-    <rPh sb="0" eb="2">
-      <t>tian'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市ID</t>
-    <rPh sb="0" eb="2">
-      <t>cheng'sh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>城市名称</t>
@@ -1527,55 +1383,6 @@
     <t>表名</t>
     <rPh sb="0" eb="2">
       <t>biao'ming'chen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜间信息</t>
-    <rPh sb="0" eb="2">
-      <t>ye'jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日间信息</t>
-    <rPh sb="0" eb="2">
-      <t>ri'jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高气温</t>
-    <rPh sb="0" eb="2">
-      <t>zui'ga</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低气温</t>
-    <rPh sb="0" eb="2">
-      <t>zui'd</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风向</t>
-    <rPh sb="0" eb="2">
-      <t>feng'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风速</t>
-    <rPh sb="0" eb="2">
-      <t>feng's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风速级别</t>
-    <rPh sb="0" eb="2">
-      <t>feng's</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2181,13 +1988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理P2开发全生命周期</t>
-    <rPh sb="0" eb="2">
-      <t>guan'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <rPh sb="0" eb="2">
       <t>xu'ha</t>
@@ -2275,6 +2075,375 @@
   </si>
   <si>
     <r>
+      <t>8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成界面开发工作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完善页面视图</t>
+    </r>
+  </si>
+  <si>
+    <t>P2需求管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接受需分同事的需求说明书【包含界面样式设计】，确认修改内容与上线日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受需分同事的需求说明书【包含界面样式设计】，确认修改内容与上线日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据需求说明书，分析该需求所关联的联机交易【找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>P8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目组负责人要；同项目组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跨组件】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2需求分析管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2开发设计管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求说明书，分析需求所需修改内容 与 需求所关联的联机交易【找P8项目组负责人要；同项目组OR跨组件】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据需求说明书，分析并设计页面逻辑控制流和页面数据流。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据需求说明书，根据界面样式设计，设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>P2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面布局与样式【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>INPUT-GRID-INPUT-GRID-...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据需求说明书，根据所关联的联机交易，设计页面组件与联机交易之间的映射关系【菜单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Label-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段英文简称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段中文名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段所属交易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根据需求说明书，分析并设计页面逻辑控制流和页面数据流
+2.根据需求说明书，根据界面样式设计，设计P2页面布局与样式【INPUT-GRID-INPUT-GRID-...】
+3.根据需求说明书，根据所关联的联机交易，设计页面组件与联机交易之间的映射关系【菜单-子页面-字段Label-字段英文简称-字段中文名称-字段所属交易ID】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发任务管理</t>
+    <rPh sb="0" eb="2">
+      <t>kai'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>3. </t>
     </r>
     <r>
@@ -2344,9 +2513,16 @@
       </rPr>
       <t>】</t>
     </r>
-  </si>
-  <si>
-    <r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>4. </t>
     </r>
     <r>
@@ -2378,9 +2554,21 @@
       </rPr>
       <t>流，并指派到开发负责人</t>
     </r>
-  </si>
-  <si>
-    <r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 明确开发任务，主开发任务OR协同开发任务【由P8同事建立主开发任务，并创建协同任务给P2】
+2. 根据开发任务建立开发CC流，并指派到开发负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>5. </t>
     </r>
     <r>
@@ -2393,9 +2581,38 @@
       </rPr>
       <t>与需分同事，明确菜单模板、权限模板</t>
     </r>
-  </si>
-  <si>
-    <r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <rPh sb="0" eb="2">
+      <t>cai'da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <rPh sb="0" eb="2">
+      <t>quan'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>6. </t>
     </r>
     <r>
@@ -2465,9 +2682,23 @@
       </rPr>
       <t>【与联机交易强相关，可直接从数据管理平台获取】</t>
     </r>
-  </si>
-  <si>
-    <r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码生成管理</t>
+    <rPh sb="0" eb="2">
+      <t>dai'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>7. </t>
     </r>
     <r>
@@ -2537,24 +2768,21 @@
       </rPr>
       <t>可通过数据管理平台获取】</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>8. </t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 根据需求说明书，根据所关联的联机交易，开发outbound、mapping、codetransform【与联机交易强相关，可直接从数据管理平台获取】
+2. 根据需求说明书，并根据所关联的联机交易及其字段，开发所需转义的字段【CD或IND结尾，转义SQL可通过数据管理平台获取】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
-      <t>完成界面开发工作</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>8.1 </t>
     </r>
     <r>
@@ -2567,358 +2795,355 @@
       </rPr>
       <t>根据已开发好的界面，根据界面内的字段校验规则生成自测案例集合【等价类方法】</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>9. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完善页面视图</t>
-    </r>
-  </si>
-  <si>
-    <t>P2需求管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接受需分同事的需求说明书【包含界面样式设计】，确认修改内容与上线日期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受需分同事的需求说明书【包含界面样式设计】，确认修改内容与上线日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据需求说明书，分析该需求所关联的联机交易【找</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>P8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目组负责人要；同项目组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跨组件】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2需求分析管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2开发设计管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据需求说明书，分析需求所需修改内容 与 需求所关联的联机交易【找P8项目组负责人要；同项目组OR跨组件】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.需求编号;2.需求文档;3.上线日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据需求说明书，分析并设计页面逻辑控制流和页面数据流。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据需求说明书，根据界面样式设计，设计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>P2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页面布局与样式【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>INPUT-GRID-INPUT-GRID-...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据需求说明书，根据所关联的联机交易，设计页面组件与联机交易之间的映射关系【菜单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>子页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Label-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段英文简称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段中文名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段所属交易</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.根据需求说明书，分析并设计页面逻辑控制流和页面数据流
-2.根据需求说明书，根据界面样式设计，设计P2页面布局与样式【INPUT-GRID-INPUT-GRID-...】
-3.根据需求说明书，根据所关联的联机交易，设计页面组件与联机交易之间的映射关系【菜单-子页面-字段Label-字段英文简称-字段中文名称-字段所属交易ID】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.关联需求编号;2.修改内容列表及修改内容编号【对应4级任务】;3.修改内容关联联机交易映射关系;4.联机交易技术联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.修改内容编号;2.修改内容界面布局;3.修改内容界面字段及字段说明;4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试案例管理</t>
+    <rPh sb="0" eb="2">
+      <t>ce'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据已开发好的界面，根据界面内的字段校验规则生成自测案例集合【等价类方法】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面视图管理</t>
+    <rPh sb="0" eb="2">
+      <t>ye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需求编号;
+2.需求文档;
+3.上线日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.关联需求编号;
+2.修改内容列表及修改内容编号【对应4级任务】;
+3.修改内容关联联机交易映射关系;
+4.联机交易技术联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改内容编号;
+2.修改内容界面布局;
+3.修改内容界面字段及字段说明;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性分析</t>
+    <rPh sb="0" eb="2">
+      <t>ke'xing'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理P2开发全生命周期-针对新增功能菜单</t>
+    <rPh sb="0" eb="2">
+      <t>guan'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需求新建需求任务，上线日期和简要的功能描述，并上传需求说明书doc OR excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需求进入编号为XX的需求任务
+2.逐条填写详细的需求内容 及其关联的联机交易负责人和联机交易ID 和相关逻辑注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需求进入编号为XX的需求任务
+2.系统以模块的方式【Panel方式 OR Win方式 OR 弹出页面】提示需求设计页面
+3.需求在模块中新增页面要素【单个模块中只可关联一只查询交易，若存在多个查询交易请拆成多个模块】【input、select、Grid、Table】【Button-功能按钮】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <rPh sb="0" eb="2">
+      <t>shu'ju'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求表</t>
+    <rPh sb="0" eb="2">
+      <t>xu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求ID</t>
+    <rPh sb="0" eb="2">
+      <t>xu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求名称</t>
+    <rPh sb="0" eb="2">
+      <t>xu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <rPh sb="0" eb="2">
+      <t>ye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <rPh sb="0" eb="2">
+      <t>ye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面设计表</t>
+    <rPh sb="0" eb="2">
+      <t>ye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联需求ID</t>
+    <rPh sb="0" eb="6">
+      <t>guan'li'axu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联页面id</t>
+    <rPh sb="0" eb="6">
+      <t>guan'li'aye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素Label名称</t>
+    <rPh sb="0" eb="2">
+      <t>yao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素字段ID</t>
+    <rPh sb="0" eb="2">
+      <t>yao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素字段名称</t>
+    <rPh sb="0" eb="2">
+      <t>yao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-ul;03-grid;04-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级页面要素表</t>
+    <rPh sb="0" eb="7">
+      <t>er'jye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_element_snd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级要素id</t>
+    <rPh sb="0" eb="6">
+      <t>er'jyao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级要素类型</t>
+    <rPh sb="0" eb="6">
+      <t>er'jyao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-input;12-select;21-grid;31-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块所属交易</t>
+    <rPh sb="0" eb="6">
+      <t>mo'kua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面模块表</t>
+    <rPh sb="0" eb="2">
+      <t>ye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级页面要素表</t>
+    <rPh sb="0" eb="7">
+      <t>yi'jye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_element_fst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块id</t>
+    <rPh sb="0" eb="1">
+      <t>mo'kua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块Order</t>
+    <rPh sb="0" eb="2">
+      <t>mo'kua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级要素id</t>
+    <rPh sb="0" eb="6">
+      <t>yi'jyao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联模块id</t>
+    <rPh sb="0" eb="6">
+      <t>guan'li'aye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级要素类型</t>
+    <rPh sb="0" eb="6">
+      <t>yi'jyao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联一级要素id</t>
+    <rPh sb="0" eb="8">
+      <t>guan'li'aye'mia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可维护</t>
+    <rPh sb="0" eb="2">
+      <t>shi'fo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护交易ID</t>
+    <rPh sb="0" eb="2">
+      <t>wei'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护交易名称</t>
+    <rPh sb="0" eb="2">
+      <t>wei'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8交易字段ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认展开</t>
+    <rPh sb="0" eb="2">
+      <t>shi'fo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIV模块是否默认展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块类型</t>
+    <rPh sb="0" eb="2">
+      <t>mo'kua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-Panel模块;02-DIV模块;03-Form模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01时必填；默认为TRUE</t>
+    <rPh sb="0" eb="13">
+      <t>mo'ren'we</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02时必填；默认为TRUE</t>
+    <rPh sb="0" eb="13">
+      <t>more</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善页面视图
+扩展1：页面级别的字段视图[交易ID+字段ID+字段补充说明]</t>
+    <rPh sb="0" eb="2">
+      <t>wan'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言管理</t>
+    <rPh sb="0" eb="2">
+      <t>duo'yu'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护多语言资源基线</t>
+    <rPh sb="0" eb="2">
+      <t>wei'h</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2926,7 +3151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3031,8 +3256,16 @@
       <name val="Helvetica"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3111,22 +3344,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -3164,7 +3404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3196,9 +3436,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3225,66 +3462,70 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3599,28 +3840,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>577</v>
+      <c r="A1" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>579</v>
+      <c r="B2" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>527</v>
       </c>
       <c r="D2">
         <v>20180701</v>
@@ -3633,6 +3874,133 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="45.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="27" customFormat="1" ht="17">
+      <c r="A1" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28">
+      <c r="A2" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
@@ -3651,16 +4019,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1">
@@ -3672,10 +4040,10 @@
     <row r="3" spans="1:4">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -3683,7 +4051,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -3691,7 +4059,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -3699,7 +4067,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -3718,10 +4086,10 @@
     <row r="9" spans="1:4" customFormat="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -3734,10 +4102,10 @@
     <row r="11" spans="1:4" customFormat="1">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -3745,7 +4113,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -3753,7 +4121,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="D13" s="8"/>
     </row>
@@ -3761,7 +4129,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="D14" s="8"/>
     </row>
@@ -3769,64 +4137,64 @@
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1"/>
     <row r="17" spans="2:4">
       <c r="B17" s="9" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="126">
       <c r="C18" s="11" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="2" customFormat="1"/>
     <row r="20" spans="2:4">
       <c r="B20" s="9" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="28">
       <c r="C21" s="11" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" s="11" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="2" customFormat="1"/>
     <row r="24" spans="2:4" s="4" customFormat="1">
       <c r="B24" s="9" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="4" customFormat="1">
       <c r="C25" s="13" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="4" customFormat="1">
@@ -3837,29 +4205,29 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="9" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="C29" s="11" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="C30" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="3" customFormat="1"/>
     <row r="32" spans="2:4" customFormat="1">
       <c r="B32" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="C32" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" customFormat="1"/>
@@ -3870,23 +4238,23 @@
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="C37" s="5" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="5" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C38" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:3" customFormat="1">
@@ -3897,15 +4265,15 @@
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:3" customFormat="1">
       <c r="C42" s="11" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="3" customFormat="1">
@@ -3913,13 +4281,13 @@
     </row>
     <row r="44" spans="1:3" customFormat="1">
       <c r="A44" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:3" customFormat="1">
@@ -3927,13 +4295,13 @@
     </row>
     <row r="46" spans="1:3" customFormat="1">
       <c r="A46" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1">
@@ -3941,15 +4309,15 @@
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="9" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" s="11" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="2:3" s="2" customFormat="1">
@@ -3957,16 +4325,16 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="9" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52"/>
       <c r="C52" s="11" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="2:3" s="2" customFormat="1">
@@ -3975,76 +4343,76 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="9" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="2:3" s="2" customFormat="1"/>
     <row r="56" spans="2:3">
       <c r="B56" s="9" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="5" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="5" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="5" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="9" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="C65" s="11" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="9" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="9" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="9" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="9" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4054,1361 +4422,1083 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19" style="39" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9" style="39"/>
-    <col min="6" max="6" width="15" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="19" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9" style="38"/>
+    <col min="6" max="6" width="15" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="45" customFormat="1"/>
+    <row r="1" spans="1:2" s="44" customFormat="1"/>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="40"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="40"/>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="40"/>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="40"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="40"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="40"/>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17">
+      <c r="A17" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="44" customFormat="1"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="C20" s="40"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" s="40"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="44" customFormat="1"/>
+    <row r="35" spans="1:3">
+      <c r="A35" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B37" s="40"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="40"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="B39" s="40"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40" s="40"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B41" s="40"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="B42" s="40"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="B43" s="40"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="B44" s="40"/>
+    </row>
+    <row r="45" spans="1:3" s="44" customFormat="1"/>
+    <row r="46" spans="1:3">
+      <c r="A46" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="40"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="B49" s="40"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="B50" s="40"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B51" s="40"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B52" s="40"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="B53" s="40"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B54" s="40"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="B55" s="40"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" s="40"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="B57" s="40"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="40" t="s">
+      <c r="B58" s="40"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B59" s="40"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="47" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
+      <c r="B60" s="40"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="41"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="40" t="s">
+      <c r="B61" s="40"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B5" s="41"/>
-    </row>
-    <row r="6" spans="1:2" ht="17">
-      <c r="A6" s="42" t="s">
+      <c r="B62" s="40"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B63" s="40"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="47" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="40" t="s">
+      <c r="B64" s="40"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="41"/>
-    </row>
-    <row r="8" spans="1:2" ht="17">
-      <c r="A8" s="44" t="s">
+      <c r="B65" s="40"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="B66" s="40"/>
+    </row>
+    <row r="67" spans="1:2" s="44" customFormat="1">
+      <c r="A67" s="49"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B70" s="40"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="B71" s="40"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72" s="40"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="B73" s="40"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="B74" s="40"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="B75" s="40"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="B76" s="40"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="B77" s="40"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="B78" s="40"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="B79" s="40"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B80" s="40"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="50" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17">
-      <c r="A9" s="44" t="s">
+      <c r="B81" s="40"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="B82" s="40"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17">
-      <c r="A10" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="B10" s="43" t="s">
+      <c r="B83" s="40"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="50" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17">
-      <c r="A11" s="44" t="s">
+      <c r="B84" s="40"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B85" s="40"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="B86" s="40"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="B87" s="40"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="B88" s="40"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="B89" s="40"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" s="40"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="B91" s="40"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="B92" s="40"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="B93" s="40"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="B94" s="40"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="B95" s="40"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="B96" s="40"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B97" s="40"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="B98" s="40"/>
+    </row>
+    <row r="99" spans="1:2" s="44" customFormat="1">
+      <c r="A99" s="49"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B100" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="B11" s="43" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="B101" s="39" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B102" s="40"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="B103" s="40"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="B104" s="40"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="B12" s="41"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="40" t="s">
+      <c r="B105" s="40"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="41"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
+      <c r="B106" s="40"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="B14" s="41"/>
-    </row>
-    <row r="15" spans="1:2" ht="17">
-      <c r="A15" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17">
-      <c r="A16" s="44" t="s">
+      <c r="B107" s="40"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17">
-      <c r="A17" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17">
-      <c r="A18" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="B108" s="40"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B109" s="40"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="B110" s="40"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="B111" s="40"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="B112" s="40"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="B113" s="40"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="B114" s="40"/>
+    </row>
+    <row r="115" spans="1:2" s="44" customFormat="1"/>
+    <row r="116" spans="1:2">
+      <c r="A116" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B116" s="39" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="45" customFormat="1"/>
-    <row r="20" spans="1:3">
-      <c r="A20" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="B20" s="38" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="B117" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="C20" s="41"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="B21" s="38" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B118" s="40"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="B119" s="40"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="C21" s="41"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="46" t="s">
+      <c r="B120" s="40"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40" t="s">
+      <c r="B121" s="40"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="45" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="47" t="s">
+      <c r="B122" s="40"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="40" t="s">
+      <c r="B123" s="40"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="45" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="46" t="s">
+      <c r="B124" s="40"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="40" t="s">
+      <c r="B125" s="40"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="51" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="47" t="s">
+      <c r="B126" s="40"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="40" t="s">
+      <c r="B127" s="40"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="51" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="47" t="s">
+      <c r="B128" s="40"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="51" t="s">
         <v>498</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="40" t="s">
+      <c r="B129" s="40"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="51" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="47" t="s">
+      <c r="B130" s="40"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="40" t="s">
+      <c r="B131" s="40"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B132" s="40"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="45" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="47" t="s">
+      <c r="B133" s="40"/>
+    </row>
+    <row r="134" spans="1:3" s="44" customFormat="1"/>
+    <row r="135" spans="1:3">
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B136" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="C136" s="39"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="B137" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="39"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B139" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="C139" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="B140" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="40" t="s">
+      <c r="C140" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="B141" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="C141" s="39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="52" t="s">
+        <v>514</v>
+      </c>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B145" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C145" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B146" s="39" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="40" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="40" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="46" t="s">
+      <c r="C146" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40" t="s">
+      <c r="C147" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B148" s="39" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" s="45" customFormat="1"/>
-    <row r="35" spans="1:3">
-      <c r="A35" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="B35" s="40" t="s">
+      <c r="C148" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B149" s="39" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="B36" s="40" t="s">
+      <c r="C149" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B150" s="39" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B37" s="41"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="47" t="s">
+      <c r="C150" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B151" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="B38" s="41"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="47" t="s">
+      <c r="C151" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="B152" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="B39" s="41"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="47" t="s">
+      <c r="C152" s="39"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B153" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="B40" s="41"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B41" s="41"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="B42" s="41"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="B43" s="41"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="47" t="s">
+      <c r="C153" s="39"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="B154" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="B44" s="41"/>
-    </row>
-    <row r="45" spans="1:3" s="45" customFormat="1"/>
-    <row r="46" spans="1:3">
-      <c r="A46" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="B46" s="40" t="s">
+      <c r="C154" s="39"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="B155" s="39" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="B47" s="40" t="s">
+      <c r="C155" s="39"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156" s="39" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B48" s="41"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="B49" s="41"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="47" t="s">
-        <v>515</v>
-      </c>
-      <c r="B50" s="41"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="47" t="s">
-        <v>516</v>
-      </c>
-      <c r="B51" s="41"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B52" s="41"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="B53" s="41"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="47" t="s">
-        <v>485</v>
-      </c>
-      <c r="B54" s="41"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="B55" s="41"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="B56" s="41"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="B57" s="41"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="B58" s="41"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="B59" s="41"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="B60" s="41"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="B61" s="41"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="B62" s="41"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="B63" s="41"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="B64" s="41"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="48" t="s">
-        <v>527</v>
-      </c>
-      <c r="B65" s="41"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="B66" s="41"/>
-    </row>
-    <row r="67" spans="1:2" s="45" customFormat="1">
-      <c r="A67" s="50"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B70" s="41"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="B71" s="41"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="B72" s="41"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="51" t="s">
-        <v>518</v>
-      </c>
-      <c r="B73" s="41"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="B74" s="41"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="51" t="s">
-        <v>520</v>
-      </c>
-      <c r="B75" s="41"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="B76" s="41"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="51" t="s">
-        <v>522</v>
-      </c>
-      <c r="B77" s="41"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="51" t="s">
-        <v>523</v>
-      </c>
-      <c r="B78" s="41"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="B79" s="41"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="51" t="s">
-        <v>525</v>
-      </c>
-      <c r="B80" s="41"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="51" t="s">
-        <v>526</v>
-      </c>
-      <c r="B81" s="41"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="B82" s="41"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="51" t="s">
-        <v>528</v>
-      </c>
-      <c r="B83" s="41"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="51" t="s">
-        <v>531</v>
-      </c>
-      <c r="B84" s="41"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B85" s="41"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="B86" s="41"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="51" t="s">
-        <v>518</v>
-      </c>
-      <c r="B87" s="41"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="B88" s="41"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="51" t="s">
-        <v>520</v>
-      </c>
-      <c r="B89" s="41"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="B90" s="41"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="51" t="s">
-        <v>522</v>
-      </c>
-      <c r="B91" s="41"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="51" t="s">
-        <v>523</v>
-      </c>
-      <c r="B92" s="41"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="B93" s="41"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="51" t="s">
-        <v>525</v>
-      </c>
-      <c r="B94" s="41"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="51" t="s">
-        <v>526</v>
-      </c>
-      <c r="B95" s="41"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="B96" s="41"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="51" t="s">
-        <v>528</v>
-      </c>
-      <c r="B97" s="41"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="51" t="s">
-        <v>531</v>
-      </c>
-      <c r="B98" s="41"/>
-    </row>
-    <row r="99" spans="1:2" s="45" customFormat="1">
-      <c r="A99" s="50"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="B100" s="40" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="B101" s="40" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B102" s="41"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="B103" s="41"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="B104" s="41"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="B105" s="41"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="B106" s="41"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="51" t="s">
-        <v>536</v>
-      </c>
-      <c r="B107" s="41"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="B108" s="41"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B109" s="41"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="B110" s="41"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="B111" s="41"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="B112" s="41"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="51" t="s">
-        <v>536</v>
-      </c>
-      <c r="B113" s="41"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="B114" s="41"/>
-    </row>
-    <row r="115" spans="1:2" s="45" customFormat="1"/>
-    <row r="116" spans="1:2">
-      <c r="A116" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="B116" s="40" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="B117" s="40" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B118" s="41"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="B119" s="41"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="46" t="s">
-        <v>540</v>
-      </c>
-      <c r="B120" s="41"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="46" t="s">
-        <v>541</v>
-      </c>
-      <c r="B121" s="41"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="46" t="s">
-        <v>542</v>
-      </c>
-      <c r="B122" s="41"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="46" t="s">
-        <v>543</v>
-      </c>
-      <c r="B123" s="41"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="B124" s="41"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="B125" s="41"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B126" s="41"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="52" t="s">
-        <v>547</v>
-      </c>
-      <c r="B127" s="41"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="52" t="s">
-        <v>548</v>
-      </c>
-      <c r="B128" s="41"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B129" s="41"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="52" t="s">
-        <v>550</v>
-      </c>
-      <c r="B130" s="41"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="52" t="s">
-        <v>551</v>
-      </c>
-      <c r="B131" s="41"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B132" s="41"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="B133" s="41"/>
-    </row>
-    <row r="134" spans="1:3" s="45" customFormat="1"/>
-    <row r="135" spans="1:3">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="45"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="C136" s="40"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="B137" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="C137" s="40"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B138" s="40"/>
-      <c r="C138" s="40"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="40" t="s">
-        <v>571</v>
-      </c>
-      <c r="B139" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="C139" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="40" t="s">
-        <v>572</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>553</v>
-      </c>
-      <c r="C140" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="B141" s="40" t="s">
-        <v>568</v>
-      </c>
-      <c r="C141" s="40" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="53" t="s">
-        <v>566</v>
-      </c>
-      <c r="B144" s="40"/>
-      <c r="C144" s="40"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="B145" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="C145" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="B146" s="40" t="s">
-        <v>554</v>
-      </c>
-      <c r="C146" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="B147" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="C147" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="B148" s="40" t="s">
-        <v>556</v>
-      </c>
-      <c r="C148" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="B149" s="40" t="s">
-        <v>557</v>
-      </c>
-      <c r="C149" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="B150" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="C150" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>559</v>
-      </c>
-      <c r="C151" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="B152" s="40" t="s">
-        <v>560</v>
-      </c>
-      <c r="C152" s="40"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="B153" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="C153" s="40"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="B154" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="C154" s="40"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="B155" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="C155" s="40"/>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="B156" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="C156" s="40"/>
+      <c r="C156" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" ht="17">
-      <c r="A1" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="16">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="E10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -5431,8 +5521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -5493,134 +5583,134 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
-      <c r="B12" s="59" t="s">
-        <v>580</v>
+      <c r="B12" s="55" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13"/>
     </row>
     <row r="14" spans="1:5" ht="18">
-      <c r="B14" s="59"/>
+      <c r="B14" s="55"/>
     </row>
     <row r="15" spans="1:5">
       <c r="B15"/>
     </row>
     <row r="16" spans="1:5" ht="18">
-      <c r="B16" s="60" t="s">
-        <v>581</v>
+      <c r="B16" s="56" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17"/>
     </row>
     <row r="18" spans="2:2" ht="18">
-      <c r="B18" s="59" t="s">
-        <v>582</v>
+      <c r="B18" s="55" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19"/>
     </row>
     <row r="20" spans="2:2" ht="18">
-      <c r="B20" s="61" t="s">
-        <v>592</v>
+      <c r="B20" s="57" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
     </row>
     <row r="22" spans="2:2" ht="18">
-      <c r="B22" s="61" t="s">
-        <v>594</v>
+      <c r="B22" s="57" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23"/>
     </row>
     <row r="24" spans="2:2" ht="18">
-      <c r="B24" s="61" t="s">
-        <v>599</v>
+      <c r="B24" s="57" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25"/>
     </row>
     <row r="26" spans="2:2" ht="18">
-      <c r="B26" s="61" t="s">
-        <v>600</v>
+      <c r="B26" s="57" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27"/>
     </row>
     <row r="28" spans="2:2" ht="18">
-      <c r="B28" s="61" t="s">
-        <v>601</v>
+      <c r="B28" s="57" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29"/>
     </row>
     <row r="30" spans="2:2" ht="18">
-      <c r="B30" s="59" t="s">
-        <v>583</v>
+      <c r="B30" s="57" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31"/>
     </row>
     <row r="32" spans="2:2" ht="18">
-      <c r="B32" s="59" t="s">
-        <v>584</v>
+      <c r="B32" s="57" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33"/>
     </row>
     <row r="34" spans="2:2" ht="18">
-      <c r="B34" s="59" t="s">
-        <v>585</v>
+      <c r="B34" s="57" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35"/>
     </row>
     <row r="36" spans="2:2" ht="18">
-      <c r="B36" s="59" t="s">
-        <v>586</v>
+      <c r="B36" s="57" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37"/>
     </row>
     <row r="38" spans="2:2" ht="18">
-      <c r="B38" s="59" t="s">
-        <v>587</v>
+      <c r="B38" s="57" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39"/>
     </row>
     <row r="40" spans="2:2" ht="18">
-      <c r="B40" s="59" t="s">
-        <v>588</v>
+      <c r="B40" s="55" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41"/>
     </row>
     <row r="42" spans="2:2" ht="18">
-      <c r="B42" s="59" t="s">
-        <v>589</v>
+      <c r="B42" s="57" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43"/>
     </row>
     <row r="44" spans="2:2" ht="18">
-      <c r="B44" s="59" t="s">
-        <v>590</v>
+      <c r="B44" s="55" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5652,27 +5742,27 @@
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5770,47 +5860,47 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5872,10 +5962,10 @@
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -5915,7 +6005,7 @@
       <c r="G23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5937,7 +6027,7 @@
       <c r="D25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -5991,7 +6081,7 @@
       <c r="F28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H28" s="9" t="s">
@@ -5999,7 +6089,7 @@
       </c>
     </row>
     <row r="29" spans="3:8" ht="28">
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>106</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -6013,10 +6103,10 @@
       <c r="D30" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>111</v>
       </c>
       <c r="G30" s="9" t="s">
@@ -6058,7 +6148,7 @@
       <c r="D33" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>123</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -6094,7 +6184,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6104,53 +6194,53 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="28">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -6159,18 +6249,18 @@
       <c r="F46" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E47" s="9" t="s">
@@ -6179,44 +6269,44 @@
       <c r="F47" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="4:8">
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>88</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6224,10 +6314,10 @@
       <c r="D50" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6235,16 +6325,16 @@
       <c r="D51" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6252,16 +6342,16 @@
       <c r="D52" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="18" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6269,13 +6359,13 @@
       <c r="D53" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6283,13 +6373,13 @@
       <c r="D54" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6297,78 +6387,78 @@
       <c r="D55" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="56" spans="4:8">
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="57" spans="4:8" ht="28">
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="4:8">
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="59" spans="4:8">
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="19" t="s">
         <v>114</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="4:8">
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="61" spans="4:8">
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62" spans="4:8">
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6378,7 +6468,7 @@
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -6386,7 +6476,7 @@
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -6401,436 +6491,207 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="17.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="65.1640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="43" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:8" s="58" customFormat="1" ht="38">
+      <c r="A1" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55" t="s">
+      <c r="C1" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="D1" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="E1" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="F1" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28">
-      <c r="A2" s="55">
+      <c r="G1" s="61" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42">
+      <c r="A2" s="53">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55">
+      <c r="B2" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>591</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>593</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>598</v>
-      </c>
-      <c r="J2" s="55"/>
-    </row>
-    <row r="3" spans="1:10" ht="70">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55">
+      <c r="D2" s="54" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="84">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54">
         <v>2</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>595</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>597</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>603</v>
-      </c>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:10" ht="84">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55">
+      <c r="D3" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>539</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="112">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54">
         <v>3</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>596</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>602</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>604</v>
-      </c>
-      <c r="J4" s="55"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55">
+      <c r="D4" s="54" t="s">
+        <v>538</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>563</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="56">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54">
         <v>4</v>
       </c>
-      <c r="G5" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55">
+      <c r="D5" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54">
         <v>5</v>
       </c>
-      <c r="G6" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+      <c r="D6" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54">
         <v>6</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-    </row>
-    <row r="10" spans="1:10" ht="28">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55">
+      <c r="D7" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:8" ht="84">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54">
         <v>7</v>
       </c>
-      <c r="G10" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55">
+      <c r="D8" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:8" ht="28">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54">
         <v>8</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55">
+      <c r="D9" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" ht="42">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54">
         <v>9</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="G15" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="G17" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="G18" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="G19" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="G22" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="G23" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="G24" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="G25" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="G26" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="G27" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="G28" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="G29" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="G30" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="G31" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="G32" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7">
-      <c r="G40" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7">
-      <c r="G41" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7">
-      <c r="G43" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7">
-      <c r="G44" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7">
-      <c r="G45" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7">
-      <c r="G46" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" s="11" t="s">
-        <v>190</v>
+      <c r="D10" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="62" t="s">
+        <v>610</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>612</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6857,172 +6718,172 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1"/>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="9" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28">
       <c r="C5" s="9" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="9" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="9" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="9" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1"/>
     <row r="12" spans="1:6">
       <c r="B12" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28">
       <c r="B13" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="9" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28">
       <c r="B15" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>123</v>
@@ -7030,10 +6891,10 @@
     </row>
     <row r="16" spans="1:6" ht="28">
       <c r="C16" s="9" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>123</v>
@@ -7041,10 +6902,10 @@
     </row>
     <row r="17" spans="2:5" ht="56">
       <c r="C17" s="9" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>123</v>
@@ -7052,309 +6913,309 @@
     </row>
     <row r="18" spans="2:5" ht="56">
       <c r="B18" s="9" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="42">
       <c r="B19" s="9" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:5" s="10" customFormat="1"/>
     <row r="21" spans="2:5">
       <c r="B21" s="9" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="28">
       <c r="B22" s="9" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="28">
       <c r="B23" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="2:5" s="10" customFormat="1"/>
     <row r="25" spans="2:5" ht="28">
       <c r="B25" s="9" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="28">
       <c r="B26" s="9" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="28">
       <c r="B27" s="9" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="28">
       <c r="B28" s="9" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="28">
       <c r="B29" s="9" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="28">
       <c r="B30" s="9" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="28">
       <c r="B31" s="9" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="28">
       <c r="B32" s="9" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="28">
       <c r="B33" s="9" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="28">
       <c r="B34" s="9" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="9" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="9" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="2:5" s="10" customFormat="1"/>
     <row r="38" spans="2:5">
       <c r="B38" s="9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="9" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="9" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="9" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="9" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="9" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="9" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="9" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="9" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="9" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="9" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="10" customFormat="1"/>
@@ -7383,399 +7244,399 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1"/>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28">
       <c r="A6" s="9" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28">
       <c r="A7" s="9" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28">
       <c r="A8" s="9" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="10" customFormat="1"/>
     <row r="10" spans="1:3" ht="28">
       <c r="A10" s="9" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="10" customFormat="1"/>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1"/>
     <row r="31" spans="1:3" ht="28">
       <c r="A31" s="9" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28">
       <c r="A32" s="9" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28">
       <c r="A33" s="9" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28">
       <c r="A34" s="9" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28">
       <c r="A35" s="9" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28">
       <c r="A36" s="9" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28">
       <c r="A37" s="9" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28">
       <c r="A38" s="9" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28">
       <c r="A39" s="9" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28">
       <c r="A40" s="9" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="10" customFormat="1"/>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="9" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="10" customFormat="1"/>
@@ -7787,6 +7648,412 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="17">
+      <c r="A1" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="16">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="16">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="20" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="16">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1" ht="16">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16">
+      <c r="A27" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="B28" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="B29" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16">
+      <c r="B30" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="B31" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="B32" s="24" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15">
+      <c r="B33" s="24" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15">
+      <c r="B34" s="24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7798,13 +8065,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7812,25 +8079,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7838,15 +8105,15 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7854,15 +8121,15 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7871,7 +8138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:D3"/>
   <sheetViews>
@@ -7887,157 +8154,30 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>398</v>
+      <c r="B2" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="C3" s="21" t="s">
-        <v>404</v>
+      <c r="C3" s="20" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" ht="17">
-      <c r="A1" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28">
-      <c r="A2" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>464</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>